--- a/datasets/pwt-legend.xlsx
+++ b/datasets/pwt-legend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Deep Roots/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B09D7-D25B-204A-89F1-90BADC5F19B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD6B14-D498-0D42-8F44-A0CCDADE626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="3" r:id="rId1"/>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
@@ -478,6 +478,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -801,8 +804,8 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1029,7 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
